--- a/LeadPrimeAutomation_IndiaMart/LeadPrime Dependancy Files/IndiaMart_Leads.xlsx
+++ b/LeadPrimeAutomation_IndiaMart/LeadPrime Dependancy Files/IndiaMart_Leads.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\Eclipse Workspace\Leadprime Automation\LeadPrime Dependancy Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\Eclipse Workspace\LeadPrimeAutomation_IndiaMart\LeadPrime Dependancy Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="456">
   <si>
     <t>S no</t>
   </si>
@@ -84,18 +84,6 @@
   </si>
   <si>
     <t>Completed</t>
-  </si>
-  <si>
-    <t>I am interested in Karimnagar Bricks</t>
-  </si>
-  <si>
-    <t>Shaar</t>
-  </si>
-  <si>
-    <t>Noida, Uttar Pradesh</t>
-  </si>
-  <si>
-    <t>9339105507</t>
   </si>
   <si>
     <t>Karimnagar, Telangana</t>
@@ -232,803 +220,1286 @@
     <t>9494727160</t>
   </si>
   <si>
+    <t>I am interested in Parking Tiles</t>
+  </si>
+  <si>
+    <t>Raj Aiah</t>
+  </si>
+  <si>
     <t>Priyanka</t>
   </si>
   <si>
+    <t>9949475733</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Raju</t>
+  </si>
+  <si>
+    <t>9010935997</t>
+  </si>
+  <si>
+    <t>I am interested in Clay Brick</t>
+  </si>
+  <si>
+    <t>T K C Traders</t>
+  </si>
+  <si>
+    <t>Kozhikode, Kerala</t>
+  </si>
+  <si>
+    <t>9446780036</t>
+  </si>
+  <si>
+    <t>I am interested in Surya Concretec Cement</t>
+  </si>
+  <si>
+    <t>Prasanth</t>
+  </si>
+  <si>
+    <t>Srujana</t>
+  </si>
+  <si>
+    <t>Chennai, Tamil Nadu</t>
+  </si>
+  <si>
+    <t>9360850816</t>
+  </si>
+  <si>
+    <t>I am interested in buying Birla Strongcrete.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Raj Kumar</t>
+  </si>
+  <si>
+    <t>9133692728</t>
+  </si>
+  <si>
+    <t>I want to buy Birla TMT Steel Bars.
+Before purchasing I would like to know the price details.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Guthalingareddy</t>
+  </si>
+  <si>
+    <t>Priyaa</t>
+  </si>
+  <si>
+    <t>Nalgonda, Telangana</t>
+  </si>
+  <si>
+    <t>9440717484</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>8114328373</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Kunal</t>
+  </si>
+  <si>
+    <t>Saharanpur, Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>6372279099</t>
+  </si>
+  <si>
+    <t>7909319397</t>
+  </si>
+  <si>
+    <t>I am interested in Jsw Steel, Thickness: 10mm</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>Kochi, Kerala</t>
+  </si>
+  <si>
+    <t>7560820496</t>
+  </si>
+  <si>
+    <t>I want to buy Raasi Gold Cement.
+near Alwal
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>DP NARDING RAO</t>
+  </si>
+  <si>
+    <t>9866007966</t>
+  </si>
+  <si>
+    <t>I want to purchase 12mm Tata TMT Bars.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>Kaghaznagar, Telangana</t>
+  </si>
+  <si>
+    <t>9989803680</t>
+  </si>
+  <si>
+    <t>I am interested in buying Sri Balaji Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Ewan</t>
+  </si>
+  <si>
+    <t>Secunderabad, Telangana</t>
+  </si>
+  <si>
+    <t>9866208025</t>
+  </si>
+  <si>
+    <t>My Requirement is for Tata Steel MS Sheet.
+4 Sheets
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Gajanna</t>
+  </si>
+  <si>
+    <t>9052226999</t>
+  </si>
+  <si>
+    <t>I want to purchase Parasakthi Opc (ordinary Portland Cement) Parasakti Cement, Cement Grade: Grade 53, Packaging Size:.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Obula</t>
+  </si>
+  <si>
+    <t>Sangareddy, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>8849838359</t>
+  </si>
+  <si>
+    <t>I am interested in buying Kamadhenu Steel Price.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Ashapak</t>
+  </si>
+  <si>
+    <t>Sindgi, Karnataka</t>
+  </si>
+  <si>
+    <t>9900692398</t>
+  </si>
+  <si>
+    <t>I want to buy ACC Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Syed Khaja Moizuddin</t>
+  </si>
+  <si>
+    <t>8919653800</t>
+  </si>
+  <si>
+    <t>I want to buy ACC Opc 53 G Cement.</t>
+  </si>
+  <si>
+    <t>Shubham</t>
+  </si>
+  <si>
+    <t>9010500299</t>
+  </si>
+  <si>
+    <t>I want to buy Raasi Gold Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Chander Sekhar</t>
+  </si>
+  <si>
+    <t>9052827431</t>
+  </si>
+  <si>
+    <t>I am interested in Maha Hd Plus Cement</t>
+  </si>
+  <si>
+    <t>Nagaraju</t>
+  </si>
+  <si>
+    <t>7013755296</t>
+  </si>
+  <si>
+    <t>I want to buy Kamdhenu TMT Bars.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Shridi Sai Real States</t>
+  </si>
+  <si>
+    <t>9848208548</t>
+  </si>
+  <si>
+    <t>I want to purchase Birla TMT 550.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>eggshel powder</t>
+  </si>
+  <si>
+    <t>9885549493</t>
+  </si>
+  <si>
+    <t>I am interested in Ambuja Plus Roof Special Cement</t>
+  </si>
+  <si>
+    <t>Warangal, Telangana</t>
+  </si>
+  <si>
+    <t>9492910280</t>
+  </si>
+  <si>
+    <t>Looking TMT 550 bars kamadhenu
+8, 10, 12, 16 mms total about 3600kgs in Shamshabad Hyderabad</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>9848487372</t>
+  </si>
+  <si>
+    <t>I am interested in buying ACC Hpc Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Rahul Kumar</t>
+  </si>
+  <si>
+    <t>7970923631</t>
+  </si>
+  <si>
+    <t>I want to purchase Parasakti Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>9849995177</t>
+  </si>
+  <si>
+    <t>I am interested in buying 6-32mm Kamdhenu TMT Bars, Grade: Fe 550.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>YANDA Ravi</t>
+  </si>
+  <si>
+    <t>7396340148</t>
+  </si>
+  <si>
+    <t>I want to buy ACC Concrete Plus Xtra Strong Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>wxyz</t>
+  </si>
+  <si>
+    <t>9502068942</t>
+  </si>
+  <si>
+    <t>I am interested in buying Mild Steel 20mm Birla TMT Bars, Grade: Fe 500.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>KLakshmaiah</t>
+  </si>
+  <si>
+    <t>Ongole, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>9391338033</t>
+  </si>
+  <si>
+    <t>I am interested in buying Raasi Gold Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Jp Tiwari</t>
+  </si>
+  <si>
+    <t>9704037348</t>
+  </si>
+  <si>
+    <t>I want to buy Kamdhenu TMT Bars.
+Kindly send me price and other details.rest of the details i will discuess with supplier</t>
+  </si>
+  <si>
+    <t>Akinapalli Anil</t>
+  </si>
+  <si>
+    <t>Huzurabad, Telangana</t>
+  </si>
+  <si>
+    <t>9949008309</t>
+  </si>
+  <si>
+    <t>I am interested in buying Kamdhenu TMT Bars.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>8686898211</t>
+  </si>
+  <si>
+    <t>I want to buy TATA Steel Sheet.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>9515530836</t>
+  </si>
+  <si>
+    <t>I want to buy Kamdhenu TMT Bars 12mm to 25mm, for Construction, Grade: Fe 550.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Madhu</t>
+  </si>
+  <si>
+    <t>9032772096</t>
+  </si>
+  <si>
+    <t>I want to buy Birla TMT Bars.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Ganehs Steel</t>
+  </si>
+  <si>
+    <t>7413913201</t>
+  </si>
+  <si>
+    <t>I want to buy 20 mm agreegates.
+For slab
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>BDJPM8991F</t>
+  </si>
+  <si>
+    <t>9963552629</t>
+  </si>
+  <si>
+    <t>I am interested in ACC Concrete Plus OPC Cement, Packaging Size: 50 Kg, Grade: 53</t>
+  </si>
+  <si>
+    <t>Satyanarayan</t>
+  </si>
+  <si>
+    <t>6281181012</t>
+  </si>
+  <si>
+    <t>I want to purchase CERA Floor Tiles.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Venkat</t>
+  </si>
+  <si>
+    <t>9398326287</t>
+  </si>
+  <si>
+    <t>I want to buy Sulphate Resistant Cement.
+Needed 1000 Bags for Belur, Karnataka
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Mold- Tek Packaging Limited</t>
+  </si>
+  <si>
+    <t>8978635670</t>
+  </si>
+  <si>
+    <t>I am interested in buying Birla TMT Bars.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Yakkala Satya Narayana Iron Traders</t>
+  </si>
+  <si>
+    <t>Vijayawada, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>8074335509</t>
+  </si>
+  <si>
+    <t>I want to buy Mild Steel 12mm Birla TMT Bars, for Construction, Grade: Fe 550.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Shrinivas Prakash Palanchewar</t>
+  </si>
+  <si>
+    <t>Umarkhed, Maharashtra</t>
+  </si>
+  <si>
+    <t>9623923571</t>
+  </si>
+  <si>
+    <t>My Requirement is for 6mm to 32 Mm Mild Steel Tata Tiscon TMT Bar, for Construction.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>R Ramachandra</t>
+  </si>
+  <si>
+    <t>Gadwal, Telangana</t>
+  </si>
+  <si>
+    <t>8985359225</t>
+  </si>
+  <si>
+    <t>I want to purchase Kamdhenu TMT Bars.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Yadaiah</t>
+  </si>
+  <si>
+    <t>9912799827</t>
+  </si>
+  <si>
+    <t>I am interested in buying Parashakti Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Nijas Solution</t>
+  </si>
+  <si>
+    <t>8309922858</t>
+  </si>
+  <si>
+    <t>My Requirement is for Essar TMT.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>DCR</t>
+  </si>
+  <si>
+    <t>Bidar, Karnataka</t>
+  </si>
+  <si>
+    <t>7353823322</t>
+  </si>
+  <si>
+    <t>I am interested in buying Tata Steel.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Jp Group And Company</t>
+  </si>
+  <si>
+    <t>9949004794</t>
+  </si>
+  <si>
+    <t>Shivakumar Mandala</t>
+  </si>
+  <si>
+    <t>7659909127</t>
+  </si>
+  <si>
+    <t>I want to buy Parashakti Cement, Packing Size: 50 Kg.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Pinnika Venkata Narayana</t>
+  </si>
+  <si>
+    <t>Yerragondapalem, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>9347177562</t>
+  </si>
+  <si>
+    <t>I am interested in Kalinga TMT Bars, Grade: Fe 500</t>
+  </si>
+  <si>
+    <t>Nagpur, Maharashtra</t>
+  </si>
+  <si>
+    <t>8698110409</t>
+  </si>
+  <si>
+    <t>SSSSAMP</t>
+  </si>
+  <si>
+    <t>Akhil</t>
+  </si>
+  <si>
+    <t>Bhongir, Telangana</t>
+  </si>
+  <si>
+    <t>8106049688</t>
+  </si>
+  <si>
+    <t>Bakhari Associate</t>
+  </si>
+  <si>
+    <t>9912389374</t>
+  </si>
+  <si>
+    <t>Vikash Kumar</t>
+  </si>
+  <si>
+    <t>Bengaluru, Karnataka</t>
+  </si>
+  <si>
+    <t>9707728774</t>
+  </si>
+  <si>
+    <t>I am interested in Tirupati Tmt Bars, Grade: Fe 500</t>
+  </si>
+  <si>
+    <t>Nagoor Jani</t>
+  </si>
+  <si>
+    <t>Prakasam, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>6305165747</t>
+  </si>
+  <si>
+    <t>I am interested in Birla Tmt Steel Bars 12mm, Grade: Fe 500</t>
+  </si>
+  <si>
+    <t>Ajay Oteya</t>
+  </si>
+  <si>
+    <t>Khunti, Jharkhand</t>
+  </si>
+  <si>
+    <t>6204810125</t>
+  </si>
+  <si>
+    <t>I am interested in Fenesta Sliding Doors</t>
+  </si>
+  <si>
+    <t>Tejaswini</t>
+  </si>
+  <si>
+    <t>9849979438</t>
+  </si>
+  <si>
+    <t>Crps SCHOOL</t>
+  </si>
+  <si>
+    <t>Roja</t>
+  </si>
+  <si>
+    <t>Srinagar, Jammu &amp; Kashmir</t>
+  </si>
+  <si>
+    <t>7830456276</t>
+  </si>
+  <si>
+    <t>I am interested in MAHA HD Plus Cement</t>
+  </si>
+  <si>
+    <t>P.Srinivas</t>
+  </si>
+  <si>
+    <t>8008231557</t>
+  </si>
+  <si>
+    <t>annai timbers</t>
+  </si>
+  <si>
+    <t>Kayatharu, Tamil Nadu</t>
+  </si>
+  <si>
+    <t>8778128668</t>
+  </si>
+  <si>
     <t>Missed call</t>
   </si>
   <si>
-    <t>Mohammad Rahman</t>
-  </si>
-  <si>
-    <t>9059198786</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>4000 sqft</t>
-  </si>
-  <si>
-    <t>Jayant</t>
-  </si>
-  <si>
-    <t>Bengaluru, Karnataka</t>
-  </si>
-  <si>
-    <t>9620577880</t>
-  </si>
-  <si>
-    <t>I am interested in Parking Tiles</t>
-  </si>
-  <si>
-    <t>Arun R</t>
-  </si>
-  <si>
-    <t>8660691211</t>
-  </si>
-  <si>
-    <t>I am interested in Solid Autoclaved Aerated Concrete Ultralite AAC Blocks, For Side Walls</t>
-  </si>
-  <si>
-    <t>Tirumala agencies</t>
-  </si>
-  <si>
-    <t>Mandya, Karnataka</t>
-  </si>
-  <si>
-    <t>9448301162</t>
-  </si>
-  <si>
-    <t>Swamy</t>
-  </si>
-  <si>
-    <t>Kanakapura, Karnataka</t>
-  </si>
-  <si>
-    <t>9591570429</t>
-  </si>
-  <si>
-    <t>Srujana</t>
-  </si>
-  <si>
-    <t>I am interested in Robo Sand, Packaging Type: Loose</t>
-  </si>
-  <si>
-    <t>VM Infra</t>
-  </si>
-  <si>
-    <t>08048263256</t>
-  </si>
-  <si>
-    <t>Akhil</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>7386329990</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Mohammed Moinuddin</t>
-  </si>
-  <si>
-    <t>No Location</t>
-  </si>
-  <si>
-    <t>8520097502</t>
-  </si>
-  <si>
-    <t>6281372877</t>
-  </si>
-  <si>
-    <t>Roja</t>
-  </si>
-  <si>
-    <t>I want to buy Red Clay Bricks.
+    <t>Intro Info Pollution</t>
+  </si>
+  <si>
+    <t>9667660773</t>
+  </si>
+  <si>
+    <t>I am interested in Duraguard Microfiber Cement 50Kgs</t>
+  </si>
+  <si>
+    <t>U P S Neemera School</t>
+  </si>
+  <si>
+    <t>Sikar, Rajasthan</t>
+  </si>
+  <si>
+    <t>9928373299</t>
+  </si>
+  <si>
+    <t>I am interested in Hemadri PPC Cement, Packaging Size: 50 kg, Grade: 53</t>
+  </si>
+  <si>
+    <t>Vinod</t>
+  </si>
+  <si>
+    <t>Anitha</t>
+  </si>
+  <si>
+    <t>8520021519</t>
+  </si>
+  <si>
+    <t>Ragav</t>
+  </si>
+  <si>
+    <t>I want to buy Zuvari.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Anji</t>
+  </si>
+  <si>
+    <t>8919164780</t>
+  </si>
+  <si>
+    <t>I want to buy Coromandel Godavari Gold Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Banothu Veeranna</t>
+  </si>
+  <si>
+    <t>8897352173</t>
+  </si>
+  <si>
+    <t>I am interested in buying Sagar Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>S RaghupathiReddy</t>
+  </si>
+  <si>
+    <t>7893597636</t>
+  </si>
+  <si>
+    <t>I am interested in Ultra Tmt Fe 550 Grade 12mm</t>
+  </si>
+  <si>
+    <t>9064697012</t>
+  </si>
+  <si>
+    <t>I want to buy JSW Concreel HD Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Guguloth Kishan</t>
+  </si>
+  <si>
+    <t>Kothagudem, Telangana</t>
+  </si>
+  <si>
+    <t>9491088527</t>
+  </si>
+  <si>
+    <t>I want to buy Sagar Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Arun Kumar</t>
+  </si>
+  <si>
+    <t>8143681145</t>
+  </si>
+  <si>
+    <t>I am interested in Jaypee OPC-53 Grade Cement</t>
+  </si>
+  <si>
+    <t>Ramulu</t>
+  </si>
+  <si>
+    <t>Achampet, Telangana</t>
+  </si>
+  <si>
+    <t>9492365083</t>
+  </si>
+  <si>
+    <t>I want to buy Zuari PPC Cement.
 Kindly send me price and other details.
-Quantity: 6000 Unit(s)
-Usage: Side Wall
-Shape: Rectangular
-Why do you need this: For Home Use</t>
-  </si>
-  <si>
-    <t>Mohd Abdul Baseer</t>
-  </si>
-  <si>
-    <t>7013128358</t>
-  </si>
-  <si>
-    <t>I am interested in MAHA HD Plus Cement</t>
-  </si>
-  <si>
-    <t>8943018147</t>
-  </si>
-  <si>
-    <t>Rohit Gaur</t>
-  </si>
-  <si>
-    <t>8686088506</t>
-  </si>
-  <si>
-    <t>I am interested in 8mm - 25 mm Suguna TMT Bars, For Construction, Grade: Fe 550</t>
-  </si>
-  <si>
-    <t>Ram</t>
-  </si>
-  <si>
-    <t>Narayanapuram, Telangana</t>
-  </si>
-  <si>
-    <t>9374058580</t>
-  </si>
-  <si>
-    <t>I am interested in AAC Blocks - Ultralite</t>
-  </si>
-  <si>
-    <t>Shree Gurunanjehwer Traders</t>
-  </si>
-  <si>
-    <t>Gulbarga, Karnataka</t>
-  </si>
-  <si>
-    <t>9900810243</t>
-  </si>
-  <si>
-    <t>I am interested in Binani PPC Cement 50kg</t>
-  </si>
-  <si>
-    <t>Plastic Hardware</t>
-  </si>
-  <si>
-    <t>9474206117</t>
-  </si>
-  <si>
-    <t>Ramana</t>
-  </si>
-  <si>
-    <t>8885081316</t>
-  </si>
-  <si>
-    <t>I want to buy Anjani Opc Cement, Packaging Size: 50kg, Grade: 53 Grade.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>dukes aika</t>
-  </si>
-  <si>
-    <t>Visakhapatnam, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>7396124557</t>
-  </si>
-  <si>
-    <t>Bhukya</t>
-  </si>
-  <si>
-    <t>6302847708</t>
-  </si>
-  <si>
-    <t>MT Construction</t>
-  </si>
-  <si>
-    <t>8179221280</t>
-  </si>
-  <si>
-    <t>Vijayakumar</t>
-  </si>
-  <si>
-    <t>Namakkal, Tamil Nadu</t>
-  </si>
-  <si>
-    <t>7305488160</t>
-  </si>
-  <si>
-    <t>VenkateshamGolla</t>
-  </si>
-  <si>
-    <t>Secunderabad, Telangana</t>
-  </si>
-  <si>
-    <t>7989611163</t>
-  </si>
-  <si>
-    <t>Jaiparkash</t>
-  </si>
-  <si>
-    <t>Anantapur, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>8074901722</t>
-  </si>
-  <si>
-    <t>I want to buy Crushed Stone Aggregate.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Chandra Shakher</t>
-  </si>
-  <si>
-    <t>7337342001</t>
-  </si>
-  <si>
-    <t>Ragav</t>
-  </si>
-  <si>
-    <t>I want to buy Ashirvad UPVC Pipes.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Mohan Reddy</t>
-  </si>
-  <si>
-    <t>Tandur, Telangana</t>
-  </si>
-  <si>
-    <t>8106329479</t>
-  </si>
-  <si>
-    <t>I am interested in Raasi Gold Super Cement</t>
-  </si>
-  <si>
-    <t>Suprakssh Jana</t>
-  </si>
-  <si>
-    <t>Haldia, West Bengal</t>
-  </si>
-  <si>
-    <t>8348530893</t>
-  </si>
-  <si>
-    <t>I want to buy Raasi Gold Cement.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Sandeep David</t>
-  </si>
-  <si>
-    <t>9052477770</t>
-  </si>
-  <si>
-    <t>I want to buy Raasi Gold Cement.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Vishal Seller</t>
-  </si>
-  <si>
-    <t>9912910601</t>
-  </si>
-  <si>
-    <t>Sushant</t>
-  </si>
-  <si>
-    <t>9966099060</t>
-  </si>
-  <si>
-    <t>I want to purchase Deccan Cement.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Mahipal</t>
-  </si>
-  <si>
-    <t>7330939559</t>
-  </si>
-  <si>
-    <t>I want to buy Fenesta UPVC Doors.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Najah buiders</t>
-  </si>
-  <si>
-    <t>6362037308</t>
-  </si>
-  <si>
-    <t>For construction of roof slab</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>Warangal, Telangana</t>
-  </si>
-  <si>
-    <t>8019698190</t>
-  </si>
-  <si>
-    <t>I want to buy Astral PVC Pipes.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Vithalnatikar</t>
-  </si>
-  <si>
-    <t>Afzalpur, Karnataka</t>
-  </si>
-  <si>
-    <t>9880131359</t>
-  </si>
-  <si>
-    <t>I want to buy Chettinad Cement.</t>
-  </si>
-  <si>
-    <t>Not Yet</t>
-  </si>
-  <si>
-    <t>9908994066</t>
-  </si>
-  <si>
-    <t>I want to buy JK Super Cement Opc.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Srinivas Chakravarthy</t>
-  </si>
-  <si>
-    <t>7799091111</t>
-  </si>
-  <si>
-    <t>Naman Trading</t>
-  </si>
-  <si>
-    <t>9959891087</t>
-  </si>
-  <si>
-    <t>I am interested in Chettinad Opc 53 Grade Cement</t>
-  </si>
-  <si>
-    <t>PSGD</t>
-  </si>
-  <si>
-    <t>8978792929</t>
-  </si>
-  <si>
-    <t>I want to buy ACC Concrete Plus Cement, Packaging Size: 50 Kg, Grade: 53.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Chirag</t>
-  </si>
-  <si>
-    <t>8801835447</t>
-  </si>
-  <si>
-    <t>I want to purchase Coromandel Cement.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>ANnU</t>
-  </si>
-  <si>
-    <t>9666060646</t>
-  </si>
-  <si>
-    <t>I want to buy JSW Concreel HD Cement.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Tirumala Steel And Cements</t>
-  </si>
-  <si>
-    <t>9676364627</t>
-  </si>
-  <si>
-    <t>I want to purchase Zuari Opc Cement 43 and 53 Grade.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Hari Prasad</t>
-  </si>
-  <si>
-    <t>Guntur, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>8919188644</t>
-  </si>
-  <si>
-    <t>I want to buy JK White Cement 50 kgs</t>
-  </si>
-  <si>
-    <t>Vasavi Pumps</t>
-  </si>
-  <si>
-    <t>9866087564</t>
-  </si>
-  <si>
-    <t>I want to purchase Raasi Cement.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Ashish Reddy</t>
-  </si>
-  <si>
-    <t>Bhadrachalam, Telangana</t>
-  </si>
-  <si>
-    <t>7013878647</t>
-  </si>
-  <si>
-    <t>I want to buy Coromandel Opc 53 Grade Cement.</t>
-  </si>
-  <si>
-    <t>Nagraj</t>
-  </si>
-  <si>
-    <t>9581898929</t>
-  </si>
-  <si>
-    <t>I want to buy Ashirvad UPVC Submersible Column Pipe.
-I need only distributor details.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Usman</t>
-  </si>
-  <si>
-    <t>9100900336</t>
-  </si>
-  <si>
-    <t>I want to purchase Coromandel King Cement.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Aftab Khan</t>
-  </si>
-  <si>
-    <t>8341695672</t>
-  </si>
-  <si>
-    <t>Venkatpathi</t>
-  </si>
-  <si>
-    <t>9052255469</t>
-  </si>
-  <si>
-    <t>I want to buy Ambuja Plus Roof Special Cement, Packing Size: 50 Kg.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Naveen</t>
-  </si>
-  <si>
-    <t>8096025859</t>
-  </si>
-  <si>
-    <t>I am interested in Anchor Electrical Switches</t>
-  </si>
-  <si>
-    <t>Siddanthpu Mahesh</t>
-  </si>
-  <si>
-    <t>Pithapuram, Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>9676462960</t>
-  </si>
-  <si>
-    <t>I am interested in Syska Cool Daylight SSK-SRL-9W B22 Base</t>
-  </si>
-  <si>
-    <t>Madeena</t>
-  </si>
-  <si>
-    <t>9014223138</t>
+Rest of the details i will discuss with the supplier.</t>
+  </si>
+  <si>
+    <t>SHRINIWAS FLY ASH BRICK</t>
+  </si>
+  <si>
+    <t>Mancherial , Telangana</t>
+  </si>
+  <si>
+    <t>9603962505</t>
+  </si>
+  <si>
+    <t>7013623223</t>
+  </si>
+  <si>
+    <t>I am interested in Bangur Cement Ppc 43</t>
+  </si>
+  <si>
+    <t>Prakash S Kambali</t>
+  </si>
+  <si>
+    <t>Gadag-Betgeri, Karnataka</t>
+  </si>
+  <si>
+    <t>9611532479</t>
+  </si>
+  <si>
+    <t>I am interested in buying Wipro LED Lights.
+Kindly send me price and other details.
+Quantity: 60 piece
+Probable Requirement Type: Business Use
+Probable Order Value: Rs. 50,000 to 1 Lakh</t>
+  </si>
+  <si>
+    <t>Sri</t>
+  </si>
+  <si>
+    <t>7995392012</t>
+  </si>
+  <si>
+    <t>I am interested in Hemadri PPC Cement, Packaging Size: 50 Kg, Grade: 43</t>
+  </si>
+  <si>
+    <t>I am interested in Sagar Cement 53 Grade</t>
+  </si>
+  <si>
+    <t>Dhanesh</t>
+  </si>
+  <si>
+    <t>Tiruvallur, Tamil Nadu</t>
+  </si>
+  <si>
+    <t>9994745998</t>
+  </si>
+  <si>
+    <t>Steel alo required
+I am interested in Ambuja Plus Roof Special Cement</t>
+  </si>
+  <si>
+    <t>I am interested in buying JK Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Bhaskar Ellandula</t>
+  </si>
+  <si>
+    <t>7893423323</t>
+  </si>
+  <si>
+    <t>My Requirement is for Greenply Wood Veneer.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>South Central Railway</t>
+  </si>
+  <si>
+    <t>9441038756</t>
+  </si>
+  <si>
+    <t>I want to purchase Acid Texture Glass.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Revathi</t>
+  </si>
+  <si>
+    <t>9642109122</t>
+  </si>
+  <si>
+    <t>Venkatesh</t>
+  </si>
+  <si>
+    <t>9848650105</t>
+  </si>
+  <si>
+    <t>I want to purchase TMT Steel Bars.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Naveen Kumar</t>
+  </si>
+  <si>
+    <t>Medak, Telangana</t>
+  </si>
+  <si>
+    <t>9666654137</t>
+  </si>
+  <si>
+    <t>I am interested in Acc Concrete Plus Cement</t>
+  </si>
+  <si>
+    <t>Maheshmrathe</t>
+  </si>
+  <si>
+    <t>Lanji, Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>7674932122</t>
+  </si>
+  <si>
+    <t>I am interested in Kcp Ppc Cement, Packaging Size: 50 Kg, Grade: 43</t>
+  </si>
+  <si>
+    <t>Tajina</t>
+  </si>
+  <si>
+    <t>9550330769</t>
+  </si>
+  <si>
+    <t>My Requirement is for Astral 4" Silencio Pipe.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Limbadri</t>
+  </si>
+  <si>
+    <t>9550511643</t>
+  </si>
+  <si>
+    <t>I am interested in Fenesta UPVC Windows</t>
+  </si>
+  <si>
+    <t>Manoj</t>
+  </si>
+  <si>
+    <t>Darbhanga, Bihar</t>
+  </si>
+  <si>
+    <t>8544328563</t>
+  </si>
+  <si>
+    <t>I want to buy Ppc Panyam Power Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>8008565470</t>
   </si>
   <si>
     <t>I am interested in Ultra TMT- Fe 550 Grade - 20mm</t>
   </si>
   <si>
-    <t>6281840904</t>
-  </si>
-  <si>
-    <t>I want to buy Astral PVC Pipes.
-Appreciate foamcore drainage
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Ramakrishna</t>
-  </si>
-  <si>
-    <t>6302986559</t>
-  </si>
-  <si>
-    <t>I want to buy Coromandel Super King PPC Cement.
-I want fly ash percentage.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Srishailam</t>
-  </si>
-  <si>
-    <t>8500511363</t>
-  </si>
-  <si>
-    <t>Need 2 inch Ashirvad column pipes 100 nos for borewell</t>
-  </si>
-  <si>
-    <t>Praneeth</t>
-  </si>
-  <si>
-    <t>7799017523</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:32:32</t>
+    <t>Goodlife Rainbowcity</t>
+  </si>
+  <si>
+    <t>8247706507</t>
+  </si>
+  <si>
+    <t>Venkat Ramama Trader</t>
+  </si>
+  <si>
+    <t>7702235780</t>
+  </si>
+  <si>
+    <t>I want to buy Astral PVC Pipe.
+It will be my regular requirement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Kadapa Devender</t>
+  </si>
+  <si>
+    <t>Rangareddy, Telangana</t>
+  </si>
+  <si>
+    <t>9849168664</t>
+  </si>
+  <si>
+    <t>I am interested in Fenesta Upvc Windows</t>
+  </si>
+  <si>
+    <t>Kashinath</t>
+  </si>
+  <si>
+    <t>9849056944</t>
+  </si>
+  <si>
+    <t>My Requirement is for JSW Concreel HD Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Sandeep</t>
+  </si>
+  <si>
+    <t>Bodhan, Telangana</t>
+  </si>
+  <si>
+    <t>9704616768</t>
+  </si>
+  <si>
+    <t>Original quality with original wall thickness Ashirvad upvc pipes 1" dia. UPVC Pipes of 3.00 long.</t>
+  </si>
+  <si>
+    <t>Chaitanya Kiran Housing Private Limited</t>
+  </si>
+  <si>
+    <t>9441176139</t>
+  </si>
+  <si>
+    <t>My Requirement is for Penna Cement 53 and 43 Grade.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Nitin Satpute</t>
+  </si>
+  <si>
+    <t>Osmanabad, Maharashtra</t>
+  </si>
+  <si>
+    <t>9405246263</t>
+  </si>
+  <si>
+    <t>7981925713</t>
+  </si>
+  <si>
+    <t>I am interested in buying Rule Steel Furniture Lock.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>MR Traders</t>
+  </si>
+  <si>
+    <t>9182405112</t>
+  </si>
+  <si>
+    <t>My Requirement is for Penna Suraksha PSC Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>8179088499</t>
+  </si>
+  <si>
+    <t>I want to buy Sri Balaji Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>I am interested in Fenesta UPVC Doors</t>
+  </si>
+  <si>
+    <t>Kiran Kakarala</t>
+  </si>
+  <si>
+    <t>8978405959</t>
+  </si>
+  <si>
+    <t>I want to buy Kitply Mr Plywood.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Shiva</t>
+  </si>
+  <si>
+    <t>9666619366</t>
+  </si>
+  <si>
+    <t>9381369470</t>
+  </si>
+  <si>
+    <t>I am interested in buying Ambuja Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Javansinh</t>
+  </si>
+  <si>
+    <t>Surat, Gujarat</t>
+  </si>
+  <si>
+    <t>8140352569</t>
+  </si>
+  <si>
+    <t>I want to purchase 43 Grade Zuari Cement.
+Cc road
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Bommishetty Sudhakar</t>
+  </si>
+  <si>
+    <t>9502418908</t>
+  </si>
+  <si>
+    <t>Harish</t>
+  </si>
+  <si>
+    <t>8008708840</t>
+  </si>
+  <si>
+    <t>My Requirement is for Raasi Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>9492433894</t>
+  </si>
+  <si>
+    <t>Srinivas Reddy</t>
+  </si>
+  <si>
+    <t>Narayanpet, Telangana</t>
+  </si>
+  <si>
+    <t>9154061089</t>
+  </si>
+  <si>
+    <t>I want to buy Raasi Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Madhav</t>
+  </si>
+  <si>
+    <t>8341245429</t>
+  </si>
+  <si>
+    <t>I am interested in Zuari Opc Cement</t>
+  </si>
+  <si>
+    <t>ashirdd</t>
+  </si>
+  <si>
+    <t>7093802346</t>
+  </si>
+  <si>
+    <t>I want to purchase BIRLA Gold Classic.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Vishnu Gaurab</t>
+  </si>
+  <si>
+    <t>9133119406</t>
+  </si>
+  <si>
+    <t>Thakur Raghuveer Singh</t>
+  </si>
+  <si>
+    <t>9700455541</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:08:22</t>
+  </si>
+  <si>
+    <t>Sanjay H</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:09:10</t>
   </si>
   <si>
     <t>Out of Station</t>
   </si>
   <si>
-    <t>19/05/2022 14:33:03</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:33:44</t>
-  </si>
-  <si>
-    <t>Sanjay H</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:34:24</t>
+    <t>14/06/2022 17:09:51</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:10:35</t>
   </si>
   <si>
     <t>Supriya G</t>
   </si>
   <si>
-    <t>19/05/2022 14:35:04</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:35:41</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:36:21</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:37:02</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:37:42</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:38:22</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:39:02</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:39:47</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:40:27</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:41:06</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:41:46</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:42:26</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:43:07</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:43:47</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:44:29</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:45:11</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:45:50</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:46:29</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:47:09</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:47:49</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:48:29</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:49:09</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:49:48</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:50:29</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:51:14</t>
-  </si>
-  <si>
-    <t>19/05/2022 14:51:57</t>
-  </si>
-  <si>
-    <t>I want to buy Parking Tiles.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Shyamprasad Reddy</t>
-  </si>
-  <si>
-    <t>Medak, Telangana</t>
-  </si>
-  <si>
-    <t>9440494910</t>
-  </si>
-  <si>
-    <t>I am interested in Tata Steel, Grade: Fe 500</t>
-  </si>
-  <si>
-    <t>captain</t>
-  </si>
-  <si>
-    <t>Raiganj, West Bengal</t>
-  </si>
-  <si>
-    <t>6376934571</t>
-  </si>
-  <si>
-    <t>Prasad</t>
-  </si>
-  <si>
-    <t>9014564583</t>
-  </si>
-  <si>
-    <t>Praveen</t>
-  </si>
-  <si>
-    <t>7799332388</t>
-  </si>
-  <si>
-    <t>2 inch pipe</t>
-  </si>
-  <si>
-    <t>Rajesh Kumar Mena</t>
-  </si>
-  <si>
-    <t>Alwar, Rajasthan</t>
-  </si>
-  <si>
-    <t>9799328360</t>
-  </si>
-  <si>
-    <t>I am interested in Syska LED Lights</t>
-  </si>
-  <si>
-    <t>Rajitha</t>
-  </si>
-  <si>
-    <t>9440484343</t>
-  </si>
-  <si>
-    <t>I am interested in Grey South India OPC Cement, Packaging Size: 50 Kg, Grade: 53</t>
-  </si>
-  <si>
-    <t>Viru</t>
-  </si>
-  <si>
-    <t>Jagraon, Punjab</t>
-  </si>
-  <si>
-    <t>9182670860</t>
-  </si>
-  <si>
-    <t>I want to buy JK Cement.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Yadav</t>
-  </si>
-  <si>
-    <t>6305813877</t>
-  </si>
-  <si>
-    <t>I am interested in Kitply</t>
-  </si>
-  <si>
-    <t>Maa s</t>
-  </si>
-  <si>
-    <t>9985132096</t>
-  </si>
-  <si>
-    <t>Call received on 7671953101, Duration: 23 sec</t>
-  </si>
-  <si>
-    <t>Dharm Singh</t>
-  </si>
-  <si>
-    <t>Anand, Gujarat</t>
-  </si>
-  <si>
-    <t>8001985560</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Balamuruga Balamurugan</t>
-  </si>
-  <si>
-    <t>Rangareddy, Telangana</t>
-  </si>
-  <si>
-    <t>9739785506</t>
-  </si>
-  <si>
-    <t>My Requirement is for JK Cement.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>sri chakra cement</t>
-  </si>
-  <si>
-    <t>9985782987</t>
-  </si>
-  <si>
-    <t>I am interested in buying Primo Greencem PPC Zuari Cement.
-Kindly send me price and other details.</t>
-  </si>
-  <si>
-    <t>Sri Vasavi Iron and Hardware Cement General Mer...</t>
-  </si>
-  <si>
-    <t>9959781275</t>
-  </si>
-  <si>
-    <t>Sai</t>
-  </si>
-  <si>
-    <t>9703456828</t>
-  </si>
-  <si>
-    <t>23/05/2022 15:54:52</t>
-  </si>
-  <si>
-    <t>23/05/2022 15:55:24</t>
-  </si>
-  <si>
-    <t>23/05/2022 15:55:59</t>
-  </si>
-  <si>
-    <t>23/05/2022 15:56:30</t>
-  </si>
-  <si>
-    <t>23/05/2022 15:57:05</t>
-  </si>
-  <si>
-    <t>23/05/2022 15:57:36</t>
-  </si>
-  <si>
-    <t>23/05/2022 15:58:09</t>
-  </si>
-  <si>
-    <t>23/05/2022 15:59:04</t>
-  </si>
-  <si>
-    <t>23/05/2022 15:59:34</t>
-  </si>
-  <si>
-    <t>23/05/2022 16:00:09</t>
-  </si>
-  <si>
-    <t>23/05/2022 16:00:44</t>
+    <t>14/06/2022 17:11:13</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:11:53</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:12:34</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:13:22</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:14:06</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:14:52</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:15:33</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:16:13</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:16:52</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:17:37</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:18:08</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:18:39</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:19:16</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:19:53</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:20:31</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:21:11</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:21:50</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:22:32</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:23:10</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:23:52</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:24:34</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:25:15</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:25:56</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:26:44</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:27:25</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:28:07</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:28:48</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:29:29</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:30:11</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:30:52</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:31:36</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:32:18</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:33:01</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:33:45</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:34:25</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:35:06</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:35:46</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:36:30</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:37:13</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:37:54</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:38:38</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:39:18</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:40:00</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:40:40</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:41:23</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:42:04</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:42:46</t>
+  </si>
+  <si>
+    <t>14/06/2022 17:43:29</t>
+  </si>
+  <si>
+    <t>Laxmi</t>
+  </si>
+  <si>
+    <t>9866627154</t>
+  </si>
+  <si>
+    <t>Anant</t>
+  </si>
+  <si>
+    <t>9566295888</t>
+  </si>
+  <si>
+    <t>My Requirement is for ACC Gold Water Shield Cement.
+Kindly send me price and other details.</t>
+  </si>
+  <si>
+    <t>Noor</t>
+  </si>
+  <si>
+    <t>Nandikotkur, Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>9000871219</t>
+  </si>
+  <si>
+    <t>15/06/2022 16:16:57</t>
+  </si>
+  <si>
+    <t>15/06/2022 16:17:29</t>
   </si>
 </sst>
 </file>
@@ -1381,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD77"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,19 +1966,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -1518,10 +1989,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -1530,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -1541,19 +2012,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -1564,19 +2035,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -1587,10 +2058,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1599,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -1610,19 +2081,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
@@ -1633,10 +2104,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1645,7 +2116,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -1656,19 +2127,19 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -1679,45 +2150,45 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14.0</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>391</v>
+      </c>
+      <c r="I14" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="15">
@@ -1725,28 +2196,28 @@
         <v>15.0</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>224</v>
+        <v>393</v>
       </c>
       <c r="I15" t="s">
-        <v>225</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16">
@@ -1754,28 +2225,28 @@
         <v>16.0</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>226</v>
+        <v>395</v>
       </c>
       <c r="I16" t="s">
-        <v>225</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17">
@@ -1783,28 +2254,28 @@
         <v>17.0</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>227</v>
+        <v>396</v>
       </c>
       <c r="I17" t="s">
-        <v>228</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18">
@@ -1812,28 +2283,28 @@
         <v>18.0</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>261</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>260</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>229</v>
+        <v>398</v>
       </c>
       <c r="I18" t="s">
-        <v>230</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19">
@@ -1841,57 +2312,51 @@
         <v>19.0</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>264</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>265</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>231</v>
+        <v>399</v>
       </c>
       <c r="I19" t="s">
-        <v>225</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>20.0</v>
       </c>
-      <c r="B20" t="s">
-        <v>148</v>
-      </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>232</v>
+        <v>400</v>
       </c>
       <c r="I20" t="s">
-        <v>230</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21">
@@ -1899,28 +2364,28 @@
         <v>21.0</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>270</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F21" t="s">
-        <v>150</v>
+        <v>268</v>
       </c>
       <c r="G21" t="s">
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>233</v>
+        <v>401</v>
       </c>
       <c r="I21" t="s">
-        <v>228</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22">
@@ -1928,28 +2393,28 @@
         <v>22.0</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>273</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>274</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F22" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>234</v>
+        <v>402</v>
       </c>
       <c r="I22" t="s">
-        <v>225</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23">
@@ -1957,28 +2422,28 @@
         <v>23.0</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="D23" t="s">
-        <v>159</v>
+        <v>277</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>275</v>
       </c>
       <c r="G23" t="s">
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>235</v>
+        <v>403</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24">
@@ -1986,28 +2451,28 @@
         <v>24.0</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F24" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="G24" t="s">
         <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>236</v>
+        <v>404</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25">
@@ -2015,57 +2480,51 @@
         <v>25.0</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
+        <v>282</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>281</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>279</v>
       </c>
       <c r="G25" t="s">
         <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>237</v>
+        <v>405</v>
       </c>
       <c r="I25" t="s">
-        <v>228</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>26.0</v>
       </c>
-      <c r="B26" t="s">
-        <v>167</v>
-      </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s">
         <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>238</v>
+        <v>406</v>
       </c>
       <c r="I26" t="s">
-        <v>230</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27">
@@ -2073,28 +2532,28 @@
         <v>27.0</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>285</v>
       </c>
       <c r="C27" t="s">
-        <v>171</v>
+        <v>287</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F27" t="s">
-        <v>169</v>
+        <v>284</v>
       </c>
       <c r="G27" t="s">
         <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>239</v>
+        <v>407</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28">
@@ -2102,28 +2561,28 @@
         <v>28.0</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>290</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F28" t="s">
-        <v>172</v>
+        <v>288</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>240</v>
+        <v>408</v>
       </c>
       <c r="I28" t="s">
-        <v>230</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29">
@@ -2131,28 +2590,28 @@
         <v>29.0</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F29" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="G29" t="s">
         <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>241</v>
+        <v>409</v>
       </c>
       <c r="I29" t="s">
-        <v>228</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30">
@@ -2160,28 +2619,28 @@
         <v>30.0</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>293</v>
       </c>
       <c r="C30" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>294</v>
       </c>
       <c r="E30" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F30" t="s">
-        <v>178</v>
+        <v>292</v>
       </c>
       <c r="G30" t="s">
         <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>242</v>
+        <v>410</v>
       </c>
       <c r="I30" t="s">
-        <v>230</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31">
@@ -2189,28 +2648,28 @@
         <v>31.0</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F31" t="s">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="G31" t="s">
         <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>243</v>
+        <v>411</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32">
@@ -2218,28 +2677,28 @@
         <v>32.0</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>298</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>299</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F32" t="s">
-        <v>185</v>
+        <v>297</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>244</v>
+        <v>412</v>
       </c>
       <c r="I32" t="s">
-        <v>230</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33">
@@ -2247,28 +2706,28 @@
         <v>33.0</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
+        <v>301</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>302</v>
       </c>
       <c r="D33" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F33" t="s">
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
         <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>245</v>
+        <v>413</v>
       </c>
       <c r="I33" t="s">
-        <v>225</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34">
@@ -2276,28 +2735,28 @@
         <v>34.0</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>304</v>
       </c>
       <c r="C34" t="s">
-        <v>194</v>
+        <v>305</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F34" t="s">
-        <v>192</v>
+        <v>303</v>
       </c>
       <c r="G34" t="s">
         <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>246</v>
+        <v>414</v>
       </c>
       <c r="I34" t="s">
-        <v>230</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35">
@@ -2305,28 +2764,28 @@
         <v>35.0</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
+        <v>306</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F35" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>247</v>
+        <v>415</v>
       </c>
       <c r="I35" t="s">
-        <v>228</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36">
@@ -2334,28 +2793,28 @@
         <v>36.0</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
       <c r="C36" t="s">
-        <v>200</v>
+        <v>311</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="E36" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F36" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="G36" t="s">
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="I36" t="s">
-        <v>230</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37">
@@ -2363,28 +2822,28 @@
         <v>37.0</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>315</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>314</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>312</v>
       </c>
       <c r="G37" t="s">
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>249</v>
+        <v>417</v>
       </c>
       <c r="I37" t="s">
-        <v>228</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38">
@@ -2392,28 +2851,28 @@
         <v>38.0</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F38" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="G38" t="s">
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>250</v>
+        <v>418</v>
       </c>
       <c r="I38" t="s">
-        <v>225</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39">
@@ -2421,28 +2880,28 @@
         <v>39.0</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>318</v>
       </c>
       <c r="D39" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F39" t="s">
-        <v>206</v>
+        <v>316</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>251</v>
+        <v>419</v>
       </c>
       <c r="I39" t="s">
-        <v>225</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40">
@@ -2450,54 +2909,57 @@
         <v>40.0</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>320</v>
       </c>
       <c r="C40" t="s">
-        <v>212</v>
+        <v>321</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F40" t="s">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="G40" t="s">
         <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>252</v>
+        <v>420</v>
       </c>
       <c r="I40" t="s">
-        <v>230</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>41.0</v>
       </c>
+      <c r="B41" t="s">
+        <v>323</v>
+      </c>
       <c r="C41" t="s">
-        <v>214</v>
+        <v>325</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>324</v>
       </c>
       <c r="E41" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F41" t="s">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="G41" t="s">
         <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>253</v>
+        <v>421</v>
       </c>
       <c r="I41" t="s">
-        <v>228</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42">
@@ -2505,28 +2967,28 @@
         <v>42.0</v>
       </c>
       <c r="B42" t="s">
-        <v>216</v>
+        <v>327</v>
       </c>
       <c r="C42" t="s">
-        <v>217</v>
+        <v>328</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F42" t="s">
-        <v>215</v>
+        <v>326</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>254</v>
+        <v>422</v>
       </c>
       <c r="I42" t="s">
-        <v>230</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43">
@@ -2534,28 +2996,28 @@
         <v>43.0</v>
       </c>
       <c r="B43" t="s">
-        <v>219</v>
+        <v>330</v>
       </c>
       <c r="C43" t="s">
-        <v>220</v>
+        <v>331</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F43" t="s">
-        <v>218</v>
+        <v>329</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>255</v>
+        <v>423</v>
       </c>
       <c r="I43" t="s">
-        <v>228</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44">
@@ -2563,28 +3025,28 @@
         <v>44.0</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>332</v>
       </c>
       <c r="C44" t="s">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F44" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="G44" t="s">
         <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>256</v>
+        <v>424</v>
       </c>
       <c r="I44" t="s">
-        <v>230</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45">
@@ -2592,28 +3054,28 @@
         <v>45.0</v>
       </c>
       <c r="B45" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
       <c r="C45" t="s">
-        <v>268</v>
+        <v>337</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="E45" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>334</v>
       </c>
       <c r="G45" t="s">
         <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>302</v>
+        <v>425</v>
       </c>
       <c r="I45" t="s">
-        <v>228</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46">
@@ -2621,28 +3083,28 @@
         <v>46.0</v>
       </c>
       <c r="B46" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="C46" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="D46" t="s">
-        <v>271</v>
+        <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F46" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="G46" t="s">
         <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>303</v>
+        <v>426</v>
       </c>
       <c r="I46" t="s">
-        <v>225</v>
+        <v>392</v>
       </c>
     </row>
     <row r="47">
@@ -2650,28 +3112,28 @@
         <v>47.0</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>342</v>
       </c>
       <c r="C47" t="s">
-        <v>275</v>
+        <v>344</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="E47" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F47" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>304</v>
+        <v>427</v>
       </c>
       <c r="I47" t="s">
-        <v>228</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48">
@@ -2679,28 +3141,28 @@
         <v>48.0</v>
       </c>
       <c r="B48" t="s">
-        <v>277</v>
+        <v>346</v>
       </c>
       <c r="C48" t="s">
-        <v>279</v>
+        <v>347</v>
       </c>
       <c r="D48" t="s">
-        <v>278</v>
+        <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F48" t="s">
-        <v>276</v>
+        <v>345</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>305</v>
+        <v>428</v>
       </c>
       <c r="I48" t="s">
-        <v>225</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49">
@@ -2708,57 +3170,51 @@
         <v>49.0</v>
       </c>
       <c r="B49" t="s">
-        <v>281</v>
+        <v>349</v>
       </c>
       <c r="C49" t="s">
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="E49" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F49" t="s">
-        <v>280</v>
+        <v>348</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>306</v>
+        <v>429</v>
       </c>
       <c r="I49" t="s">
-        <v>228</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>50.0</v>
       </c>
-      <c r="B50" t="s">
-        <v>284</v>
-      </c>
       <c r="C50" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="G50" t="s">
         <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>307</v>
+        <v>430</v>
       </c>
       <c r="I50" t="s">
-        <v>230</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51">
@@ -2766,28 +3222,28 @@
         <v>51.0</v>
       </c>
       <c r="B51" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="C51" t="s">
-        <v>289</v>
+        <v>355</v>
       </c>
       <c r="D51" t="s">
-        <v>288</v>
+        <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F51" t="s">
-        <v>286</v>
+        <v>353</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>308</v>
+        <v>431</v>
       </c>
       <c r="I51" t="s">
-        <v>225</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52">
@@ -2795,28 +3251,28 @@
         <v>52.0</v>
       </c>
       <c r="B52" t="s">
-        <v>291</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>293</v>
+        <v>357</v>
       </c>
       <c r="D52" t="s">
-        <v>292</v>
+        <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F52" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="G52" t="s">
         <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>309</v>
+        <v>432</v>
       </c>
       <c r="I52" t="s">
-        <v>225</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53">
@@ -2824,28 +3280,28 @@
         <v>53.0</v>
       </c>
       <c r="B53" t="s">
-        <v>295</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>296</v>
+        <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F53" t="s">
-        <v>294</v>
+        <v>358</v>
       </c>
       <c r="G53" t="s">
         <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>310</v>
+        <v>433</v>
       </c>
       <c r="I53" t="s">
-        <v>225</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54">
@@ -2853,28 +3309,28 @@
         <v>54.0</v>
       </c>
       <c r="B54" t="s">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="C54" t="s">
-        <v>299</v>
+        <v>361</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F54" t="s">
-        <v>297</v>
+        <v>359</v>
       </c>
       <c r="G54" t="s">
         <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>311</v>
+        <v>434</v>
       </c>
       <c r="I54" t="s">
-        <v>230</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55">
@@ -2882,28 +3338,376 @@
         <v>55.0</v>
       </c>
       <c r="B55" t="s">
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="C55" t="s">
-        <v>301</v>
+        <v>364</v>
       </c>
       <c r="D55" t="s">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F55" t="s">
-        <v>188</v>
+        <v>362</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>312</v>
+        <v>435</v>
       </c>
       <c r="I55" t="s">
-        <v>225</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>306</v>
+      </c>
+      <c r="C56" t="s">
+        <v>365</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>256</v>
+      </c>
+      <c r="F56" t="s">
+        <v>245</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" t="s">
+        <v>436</v>
+      </c>
+      <c r="I56" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>367</v>
+      </c>
+      <c r="C57" t="s">
+        <v>369</v>
+      </c>
+      <c r="D57" t="s">
+        <v>368</v>
+      </c>
+      <c r="E57" t="s">
+        <v>256</v>
+      </c>
+      <c r="F57" t="s">
+        <v>366</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s">
+        <v>437</v>
+      </c>
+      <c r="I57" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>371</v>
+      </c>
+      <c r="C58" t="s">
+        <v>372</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" t="s">
+        <v>256</v>
+      </c>
+      <c r="F58" t="s">
+        <v>370</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s">
+        <v>438</v>
+      </c>
+      <c r="I58" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>373</v>
+      </c>
+      <c r="C59" t="s">
+        <v>374</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>256</v>
+      </c>
+      <c r="F59" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" t="s">
+        <v>439</v>
+      </c>
+      <c r="I59" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" t="s">
+        <v>376</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>256</v>
+      </c>
+      <c r="F60" t="s">
+        <v>375</v>
+      </c>
+      <c r="G60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" t="s">
+        <v>440</v>
+      </c>
+      <c r="I60" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>377</v>
+      </c>
+      <c r="C61" t="s">
+        <v>379</v>
+      </c>
+      <c r="D61" t="s">
+        <v>378</v>
+      </c>
+      <c r="E61" t="s">
+        <v>256</v>
+      </c>
+      <c r="F61" t="s">
+        <v>297</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" t="s">
+        <v>441</v>
+      </c>
+      <c r="I61" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>381</v>
+      </c>
+      <c r="C62" t="s">
+        <v>382</v>
+      </c>
+      <c r="D62" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" t="s">
+        <v>256</v>
+      </c>
+      <c r="F62" t="s">
+        <v>380</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" t="s">
+        <v>442</v>
+      </c>
+      <c r="I62" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>384</v>
+      </c>
+      <c r="C63" t="s">
+        <v>385</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>256</v>
+      </c>
+      <c r="F63" t="s">
+        <v>383</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" t="s">
+        <v>443</v>
+      </c>
+      <c r="I63" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C64" t="s">
+        <v>388</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>256</v>
+      </c>
+      <c r="F64" t="s">
+        <v>386</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s">
+        <v>444</v>
+      </c>
+      <c r="I64" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>389</v>
+      </c>
+      <c r="C65" t="s">
+        <v>390</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>256</v>
+      </c>
+      <c r="F65" t="s">
+        <v>245</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s">
+        <v>445</v>
+      </c>
+      <c r="I65" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>249</v>
+      </c>
+      <c r="C66" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" t="s">
+        <v>250</v>
+      </c>
+      <c r="E66" t="s">
+        <v>236</v>
+      </c>
+      <c r="F66" t="s">
+        <v>248</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" t="s">
+        <v>454</v>
+      </c>
+      <c r="I66" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>448</v>
+      </c>
+      <c r="C67" t="s">
+        <v>449</v>
+      </c>
+      <c r="D67" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67" t="s">
+        <v>245</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" t="s">
+        <v>455</v>
+      </c>
+      <c r="I67" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
